--- a/Filtered_By_Region/NCR/NCR_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/NCR/NCR_ELECTRIFICATION.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR109"/>
+  <dimension ref="A1:AS109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +659,11 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -705,7 +711,6 @@
       <c r="K2" t="n">
         <v>1957934.42</v>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -714,17 +719,6 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -772,7 +766,6 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -805,7 +798,6 @@
           <t>Caloocan City</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Camarin Brixton Senior High School</t>
@@ -816,7 +808,6 @@
           <t>KALOOKAN CITY</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>1</v>
       </c>
@@ -831,7 +822,6 @@
       <c r="K3" t="n">
         <v>672163.77</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -840,17 +830,6 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -898,7 +877,6 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -931,7 +909,6 @@
           <t>Caloocan City</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Samaria Tala Senior High School</t>
@@ -942,7 +919,6 @@
           <t>KALOOKAN CITY</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>1</v>
       </c>
@@ -957,7 +933,6 @@
       <c r="K4" t="n">
         <v>754858.4</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -966,17 +941,6 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1024,7 +988,6 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1057,7 +1020,6 @@
           <t>Caloocan City</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Sampaguita Senior High School</t>
@@ -1068,7 +1030,6 @@
           <t>KALOOKAN CITY</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>1</v>
       </c>
@@ -1083,7 +1044,6 @@
       <c r="K5" t="n">
         <v>743289.98</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1092,17 +1052,6 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -1150,7 +1099,6 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1213,7 +1161,6 @@
       <c r="K6" t="n">
         <v>1947303.36</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1222,17 +1169,6 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1216,6 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1354,23 +1289,19 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="3" t="n">
         <v>43636</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>43411</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>43423</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>43437</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>43460</v>
       </c>
       <c r="X7" t="inlineStr">
@@ -1378,7 +1309,6 @@
           <t>MRRM Trading &amp; Construction</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1426,7 +1356,6 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1500,8 +1429,6 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t>2018-Mandauyong -19</t>
@@ -1517,16 +1444,16 @@
           <t>July 19, 2018-August 6, 2018</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>43307</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>43319</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>43322</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>43697</v>
       </c>
       <c r="X8" t="inlineStr">
@@ -1534,7 +1461,6 @@
           <t>New Rich General  Contractor Services &amp; Trading Co., Inc.</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
@@ -1582,7 +1508,6 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1656,10 +1581,10 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>43496</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>43496</v>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1677,16 +1602,16 @@
           <t>July 19, 2018-August 6, 2018</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>43307</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>43319</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>43322</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>43697</v>
       </c>
       <c r="X9" t="inlineStr">
@@ -1694,7 +1619,6 @@
           <t>New Rich General  Contractor Services &amp; Trading Co., Inc.</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1742,7 +1666,6 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1805,7 +1728,6 @@
       <c r="K10" t="n">
         <v>3105124.57</v>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1814,17 +1736,6 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -1872,7 +1783,6 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1935,7 +1845,6 @@
       <c r="K11" t="n">
         <v>784512.8199999999</v>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1954,14 +1863,11 @@
           <t>May 22, 2019</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>March 22, 2019</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
           <t>March 27, 2019</t>
@@ -1982,7 +1888,6 @@
           <t>SHERF BUILDERS CORPORATION</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -2030,7 +1935,6 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2093,7 +1997,6 @@
       <c r="K12" t="n">
         <v>591084.11</v>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2112,14 +2015,11 @@
           <t>May 22, 2018</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>March 22, 2018</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
           <t>March 27, 2018</t>
@@ -2140,7 +2040,6 @@
           <t>SHERF BUILDERS CORPORATION</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
@@ -2188,7 +2087,6 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2251,7 +2149,6 @@
       <c r="K13" t="n">
         <v>679397.49</v>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2260,17 +2157,6 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -2318,7 +2204,6 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2381,7 +2266,6 @@
       <c r="K14" t="n">
         <v>1192859.58</v>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2390,17 +2274,6 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
@@ -2448,7 +2321,6 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2511,7 +2383,6 @@
       <c r="K15" t="n">
         <v>2194937.52</v>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2520,17 +2391,6 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
@@ -2578,7 +2438,6 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2641,7 +2500,6 @@
       <c r="K16" t="n">
         <v>6470050.58</v>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2650,17 +2508,6 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
@@ -2708,7 +2555,6 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2771,7 +2617,6 @@
       <c r="K17" t="n">
         <v>4774665.87</v>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2780,17 +2625,6 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
@@ -2838,7 +2672,6 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2901,7 +2734,6 @@
       <c r="K18" t="n">
         <v>3168383.07</v>
       </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2910,17 +2742,6 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -2968,7 +2789,6 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3031,7 +2851,6 @@
       <c r="K19" t="n">
         <v>3248178.64</v>
       </c>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3040,17 +2859,6 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -3098,7 +2906,6 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3161,7 +2968,6 @@
       <c r="K20" t="n">
         <v>1105837.87</v>
       </c>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3170,17 +2976,6 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -3228,7 +3023,6 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3291,7 +3085,6 @@
       <c r="K21" t="n">
         <v>5943563.39</v>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3300,17 +3093,6 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -3358,7 +3140,6 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3421,7 +3202,6 @@
       <c r="K22" t="n">
         <v>1744063.97</v>
       </c>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3430,17 +3210,6 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -3488,7 +3257,6 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3551,7 +3319,6 @@
       <c r="K23" t="n">
         <v>4917426.49</v>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3560,17 +3327,6 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
@@ -3618,7 +3374,6 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3681,7 +3436,6 @@
       <c r="K24" t="n">
         <v>3106367.81</v>
       </c>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3690,17 +3444,6 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -3748,7 +3491,6 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3811,7 +3553,6 @@
       <c r="K25" t="n">
         <v>3401452.88</v>
       </c>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3820,17 +3561,6 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
@@ -3878,7 +3608,6 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3941,7 +3670,6 @@
       <c r="K26" t="n">
         <v>2165075.77</v>
       </c>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3950,17 +3678,6 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
@@ -4008,7 +3725,6 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4071,7 +3787,6 @@
       <c r="K27" t="n">
         <v>2626512.25</v>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4080,17 +3795,6 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
@@ -4138,7 +3842,6 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4201,7 +3904,6 @@
       <c r="K28" t="n">
         <v>2484345.88</v>
       </c>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4210,17 +3912,6 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
@@ -4268,7 +3959,6 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4333,7 +4023,6 @@
       <c r="K29" t="n">
         <v>3589077.54</v>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4342,17 +4031,6 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
@@ -4400,7 +4078,6 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4481,7 +4158,6 @@
           <t>NOVEMBER 29,2019</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>PROJECT INFRA 2019-002</t>
@@ -4522,7 +4198,6 @@
           <t>LOURBEL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -4570,7 +4245,6 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4651,7 +4325,6 @@
           <t>NOVEMBER 29,2019</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>PROJECT INFRA 2019-003</t>
@@ -4692,7 +4365,6 @@
           <t>LOURBEL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -4740,7 +4412,6 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4805,7 +4476,6 @@
       <c r="K32" t="n">
         <v>778980.73</v>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4814,17 +4484,6 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -4872,7 +4531,6 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4937,7 +4595,6 @@
       <c r="K33" t="n">
         <v>1306702.92</v>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4946,17 +4603,6 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -5004,7 +4650,6 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5069,7 +4714,6 @@
       <c r="K34" t="n">
         <v>5804008.59</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5078,17 +4722,6 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
@@ -5136,7 +4769,6 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5201,7 +4833,6 @@
       <c r="K35" t="n">
         <v>5897707.67</v>
       </c>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5210,17 +4841,6 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
@@ -5268,7 +4888,6 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5333,7 +4952,6 @@
       <c r="K36" t="n">
         <v>1099606.15</v>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5342,17 +4960,6 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
@@ -5400,7 +5007,6 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5465,7 +5071,6 @@
       <c r="K37" t="n">
         <v>1178788.63</v>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5474,17 +5079,6 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
@@ -5532,7 +5126,6 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5597,7 +5190,6 @@
       <c r="K38" t="n">
         <v>2126244.8</v>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5606,17 +5198,6 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
@@ -5664,7 +5245,6 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5721,11 +5301,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>492401.11</v>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5734,17 +5312,6 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -5792,7 +5359,6 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5849,11 +5415,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>511212.09</v>
       </c>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5862,17 +5426,6 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -5920,7 +5473,6 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5977,11 +5529,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>717615.09</v>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5990,17 +5540,6 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
@@ -6048,7 +5587,6 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6105,11 +5643,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>796014.24</v>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6118,17 +5654,6 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
@@ -6176,7 +5701,6 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6241,7 +5765,6 @@
       <c r="K43" t="n">
         <v>3705688.32</v>
       </c>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6250,17 +5773,6 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
@@ -6308,7 +5820,6 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6373,7 +5884,6 @@
       <c r="K44" t="n">
         <v>3141017.02</v>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6382,17 +5892,6 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
@@ -6440,7 +5939,6 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6497,11 +5995,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>507323.66</v>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6510,17 +6006,6 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
@@ -6568,7 +6053,6 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6625,11 +6109,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>6390654.15</v>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6643,7 +6125,6 @@
           <t>May 20, 2021</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
           <t>Elec2020-NCR-CaloocanCity-001</t>
@@ -6684,7 +6165,6 @@
           <t>MRRM Trading &amp; Construction</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
@@ -6721,14 +6201,12 @@
       <c r="AK46" t="n">
         <v>0</v>
       </c>
-      <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="n">
         <v>1</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6785,11 +6263,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>9750743.890000001</v>
       </c>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6798,20 +6274,11 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
           <t>Elec2020-NCR-CaloocanCity-002</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
           <t>For Contract (report as of sept 2021)</t>
@@ -6853,14 +6320,12 @@
       <c r="AK47" t="n">
         <v>0</v>
       </c>
-      <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="n">
         <v>1</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6917,11 +6382,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>15261269.07</v>
       </c>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6930,20 +6393,11 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
           <t>Elec2020-NCR-SanJuanCity-001</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
           <t>WAITING FOR SIGNED CONTRACT (report as of sept 2021)</t>
@@ -6985,14 +6439,12 @@
       <c r="AK48" t="n">
         <v>0</v>
       </c>
-      <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="n">
         <v>1</v>
       </c>
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7049,7 +6501,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>6095379.83</v>
       </c>
@@ -7069,7 +6520,6 @@
           <t>May 23, 2021</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
           <t>Elec2020-NCR-SanJuanCity-001</t>
@@ -7162,7 +6612,6 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7219,11 +6668,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>5467118.17</v>
       </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7232,21 +6679,11 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
           <t>Elec2020-NCR-LasPiñasCity-003</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
@@ -7283,14 +6720,12 @@
       <c r="AK50" t="n">
         <v>0</v>
       </c>
-      <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="n">
         <v>1</v>
       </c>
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7347,7 +6782,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>5467118.17</v>
       </c>
@@ -7362,10 +6796,10 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" s="2" t="n">
+      <c r="O51" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="P51" s="3" t="n">
         <v>44300</v>
       </c>
       <c r="Q51" t="inlineStr">
@@ -7378,19 +6812,19 @@
           <t>2020-I15</t>
         </is>
       </c>
-      <c r="S51" s="2" t="n">
+      <c r="S51" s="3" t="n">
         <v>44103</v>
       </c>
-      <c r="T51" s="2" t="n">
+      <c r="T51" s="3" t="n">
         <v>44111</v>
       </c>
-      <c r="U51" s="2" t="n">
+      <c r="U51" s="3" t="n">
         <v>44119</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="V51" s="3" t="n">
         <v>44133</v>
       </c>
-      <c r="W51" s="2" t="n">
+      <c r="W51" s="3" t="n">
         <v>44155</v>
       </c>
       <c r="X51" t="inlineStr">
@@ -7398,7 +6832,6 @@
           <t>Image Builders and General Services</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -7446,7 +6879,6 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7503,7 +6935,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>8627777.869999999</v>
       </c>
@@ -7518,10 +6949,9 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" s="2" t="n">
+      <c r="O52" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
           <t>Elec2020-NCR-LasPiñasCity-001</t>
@@ -7532,19 +6962,19 @@
           <t>2020-I14</t>
         </is>
       </c>
-      <c r="S52" s="2" t="n">
+      <c r="S52" s="3" t="n">
         <v>44152</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="T52" s="3" t="n">
         <v>44160</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="U52" s="3" t="n">
         <v>44168</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="V52" s="3" t="n">
         <v>44168</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="W52" s="3" t="n">
         <v>44172</v>
       </c>
       <c r="X52" t="inlineStr">
@@ -7552,7 +6982,6 @@
           <t>Image Builders and General Services</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
@@ -7600,7 +7029,6 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7657,7 +7085,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>6975267.42</v>
       </c>
@@ -7672,10 +7099,9 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" s="2" t="n">
+      <c r="O53" s="3" t="n">
         <v>44256</v>
       </c>
-      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MalabonCity-001</t>
@@ -7691,16 +7117,16 @@
           <t>2020-INFRA-09-0004</t>
         </is>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="T53" s="3" t="n">
         <v>43847</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="3" t="n">
         <v>43871</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="W53" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="X53" t="inlineStr">
@@ -7708,7 +7134,6 @@
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
@@ -7745,14 +7170,12 @@
       <c r="AK53" t="n">
         <v>0</v>
       </c>
-      <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="n">
         <v>1</v>
       </c>
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7809,11 +7232,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>10629227.43</v>
       </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7822,20 +7243,11 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MandaluyongCity-001</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr">
         <is>
           <t>For NTP (report as of august 2021)</t>
@@ -7877,14 +7289,12 @@
       <c r="AK54" t="n">
         <v>0</v>
       </c>
-      <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="n">
         <v>1</v>
       </c>
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7941,7 +7351,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>4972820.43</v>
       </c>
@@ -8006,7 +7415,6 @@
           <t>New Rich General Contractor Services &amp; Trading Company, Inc.</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
@@ -8043,14 +7451,12 @@
       <c r="AK55" t="n">
         <v>0</v>
       </c>
-      <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="n">
         <v>1</v>
       </c>
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8107,11 +7513,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>616687.8199999999</v>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8120,21 +7524,11 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MarikinaCity-002</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
@@ -8171,14 +7565,12 @@
       <c r="AK56" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="n">
         <v>1</v>
       </c>
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8235,7 +7627,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>907202.63</v>
       </c>
@@ -8250,10 +7641,10 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" s="2" t="n">
+      <c r="O57" s="3" t="n">
         <v>44242</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>44242</v>
       </c>
       <c r="Q57" t="inlineStr">
@@ -8261,12 +7652,7 @@
           <t>Elec2020-NCR-MarikinaCity-001</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="X57" t="inlineStr">
@@ -8274,7 +7660,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
@@ -8311,14 +7696,12 @@
       <c r="AK57" t="n">
         <v>0</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="n">
         <v>1</v>
       </c>
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8375,11 +7758,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>370622.76</v>
       </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8388,21 +7769,11 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MarikinaCity-003</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
@@ -8439,14 +7810,12 @@
       <c r="AK58" t="n">
         <v>0</v>
       </c>
-      <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="n">
         <v>1</v>
       </c>
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8503,7 +7872,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>3234416.47</v>
       </c>
@@ -8518,10 +7886,10 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" s="2" t="n">
+      <c r="O59" s="3" t="n">
         <v>44242</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>44242</v>
       </c>
       <c r="Q59" t="inlineStr">
@@ -8529,12 +7897,7 @@
           <t>Elec2020-NCR-MarikinaCity-009</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="X59" t="inlineStr">
@@ -8542,7 +7905,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
@@ -8579,14 +7941,12 @@
       <c r="AK59" t="n">
         <v>0</v>
       </c>
-      <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="n">
         <v>1</v>
       </c>
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8643,11 +8003,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>978444.34</v>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8656,21 +8014,11 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MarikinaCity-009</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
@@ -8707,14 +8055,12 @@
       <c r="AK60" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="n">
         <v>1</v>
       </c>
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8771,7 +8117,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>2371106.74</v>
       </c>
@@ -8786,10 +8131,10 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" s="2" t="n">
+      <c r="O61" s="3" t="n">
         <v>44242</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>44242</v>
       </c>
       <c r="Q61" t="inlineStr">
@@ -8797,12 +8142,7 @@
           <t>Elec2020-NCR-MarikinaCity-006</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="X61" t="inlineStr">
@@ -8810,7 +8150,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
@@ -8847,14 +8186,12 @@
       <c r="AK61" t="n">
         <v>0</v>
       </c>
-      <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="n">
         <v>1</v>
       </c>
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8911,11 +8248,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>387534.38</v>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8924,21 +8259,11 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MarikinaCity-004</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
@@ -8975,14 +8300,12 @@
       <c r="AK62" t="n">
         <v>0</v>
       </c>
-      <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="n">
         <v>1</v>
       </c>
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9039,11 +8362,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>401248.84</v>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9052,21 +8373,11 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MarikinaCity-005</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
@@ -9103,14 +8414,12 @@
       <c r="AK63" t="n">
         <v>0</v>
       </c>
-      <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="n">
         <v>1</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9167,11 +8476,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>698494.3100000001</v>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9180,21 +8487,11 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MarikinaCity-008</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
@@ -9231,14 +8528,12 @@
       <c r="AK64" t="n">
         <v>0</v>
       </c>
-      <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="n">
         <v>1</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9295,7 +8590,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>793288.91</v>
       </c>
@@ -9310,10 +8604,10 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" s="2" t="n">
+      <c r="O65" s="3" t="n">
         <v>44242</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>44242</v>
       </c>
       <c r="Q65" t="inlineStr">
@@ -9321,12 +8615,7 @@
           <t>Elec2020-NCR-MarikinaCity-007</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" s="2" t="n">
+      <c r="W65" s="3" t="n">
         <v>44180</v>
       </c>
       <c r="X65" t="inlineStr">
@@ -9334,7 +8623,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
@@ -9371,14 +8659,12 @@
       <c r="AK65" t="n">
         <v>0</v>
       </c>
-      <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="n">
         <v>1</v>
       </c>
       <c r="AN65" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9435,7 +8721,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>8991962.939999999</v>
       </c>
@@ -9456,19 +8741,16 @@
 June 19, 2021</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MuntinlupaCity-002</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
           <t>11/25/20</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
           <t>12/16/20</t>
@@ -9479,7 +8761,7 @@
           <t>12/18/20</t>
         </is>
       </c>
-      <c r="W66" s="2" t="n">
+      <c r="W66" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="X66" t="inlineStr">
@@ -9487,7 +8769,6 @@
           <t>Berto Lucci Builders and Supply</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
@@ -9524,14 +8805,12 @@
       <c r="AK66" t="n">
         <v>0</v>
       </c>
-      <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="n">
         <v>1</v>
       </c>
       <c r="AN66" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9588,11 +8867,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>6167285.42</v>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9601,20 +8878,11 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MuntinlupaCity-004</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr">
         <is>
           <t>WAITING FOR MERALCO APPROVAL OF ELECTRICAL PLANS (report as of sept 2021)</t>
@@ -9656,14 +8924,12 @@
       <c r="AK67" t="n">
         <v>0</v>
       </c>
-      <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="n">
         <v>1</v>
       </c>
       <c r="AN67" t="n">
         <v>0</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9720,7 +8986,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>7803693.73</v>
       </c>
@@ -9741,19 +9006,16 @@
 June 19, 2021</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
           <t>Elec2020-NCR-MuntinlupaCity-005</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
           <t>11/25/20</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
           <t>12/16/20</t>
@@ -9764,7 +9026,7 @@
           <t>12/18/20</t>
         </is>
       </c>
-      <c r="W68" s="2" t="n">
+      <c r="W68" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="X68" t="inlineStr">
@@ -9772,7 +9034,6 @@
           <t>Berto Lucci Builders and Supply</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
@@ -9809,14 +9070,12 @@
       <c r="AK68" t="n">
         <v>0</v>
       </c>
-      <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="n">
         <v>1</v>
       </c>
       <c r="AN68" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9873,11 +9132,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>341221.55</v>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9886,16 +9143,6 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr">
         <is>
           <t xml:space="preserve"> WAITING FOR MERALCO APPROVAL OF ELECTRICAL PLANS (report as of sept 2021)</t>
@@ -9937,14 +9184,12 @@
       <c r="AK69" t="n">
         <v>0</v>
       </c>
-      <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="n">
         <v>1</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10001,11 +9246,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>5194059.48</v>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10014,21 +9257,11 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
           <t>Elec2020-NCR-NavotasCity-002</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
@@ -10065,14 +9298,12 @@
       <c r="AK70" t="n">
         <v>0</v>
       </c>
-      <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="n">
         <v>1</v>
       </c>
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10129,11 +9360,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>4963659.48</v>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10142,21 +9371,11 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
           <t>Elec2020-NCR-NavotasCity-004</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
@@ -10193,14 +9412,12 @@
       <c r="AK71" t="n">
         <v>0</v>
       </c>
-      <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="n">
         <v>1</v>
       </c>
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10257,11 +9474,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>6204317.63</v>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10270,21 +9485,11 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
           <t>Elec2020-NCR-ParañaqueCity-002</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
@@ -10321,14 +9526,12 @@
       <c r="AK72" t="n">
         <v>0</v>
       </c>
-      <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="n">
         <v>1</v>
       </c>
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10385,11 +9588,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>7574686.3</v>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10398,20 +9599,11 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
           <t>Elec2020-NCR-ParañaqueCity-001</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
           <t>with NTP (report as of sept 2021)</t>
@@ -10453,14 +9645,12 @@
       <c r="AK73" t="n">
         <v>0</v>
       </c>
-      <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="n">
         <v>1</v>
       </c>
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10517,11 +9707,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>4033871.98</v>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10530,21 +9718,11 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
           <t>Elec2020-NCR-PasigCity-001</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="n">
         <v>0</v>
       </c>
@@ -10581,14 +9759,12 @@
       <c r="AK74" t="n">
         <v>0</v>
       </c>
-      <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="n">
         <v>1</v>
       </c>
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10645,11 +9821,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>2193830.67</v>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10658,21 +9832,11 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
           <t>Elec2020-NCR-QuezonCity-002</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="n">
         <v>0</v>
       </c>
@@ -10709,14 +9873,12 @@
       <c r="AK75" t="n">
         <v>0</v>
       </c>
-      <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="n">
         <v>1</v>
       </c>
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10773,11 +9935,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>3088839.61</v>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10786,21 +9946,11 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
           <t>Elec2020-NCR-QuezonCity-004</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="n">
         <v>0</v>
       </c>
@@ -10837,14 +9987,12 @@
       <c r="AK76" t="n">
         <v>0</v>
       </c>
-      <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="n">
         <v>1</v>
       </c>
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10901,11 +10049,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>2113145.1</v>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10914,21 +10060,11 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
           <t>Elec2020-NCR-QuezonCity-002</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
         <v>0</v>
       </c>
@@ -10965,14 +10101,12 @@
       <c r="AK77" t="n">
         <v>0</v>
       </c>
-      <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="n">
         <v>1</v>
       </c>
       <c r="AN77" t="n">
         <v>0</v>
       </c>
-      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11029,11 +10163,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>6201820.73</v>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11042,21 +10174,11 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
           <t>Elec2020-NCR-QuezonCity-001</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="n">
         <v>0</v>
       </c>
@@ -11093,14 +10215,12 @@
       <c r="AK78" t="n">
         <v>0</v>
       </c>
-      <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="n">
         <v>1</v>
       </c>
       <c r="AN78" t="n">
         <v>0</v>
       </c>
-      <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11157,11 +10277,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>5246186.81</v>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11170,21 +10288,11 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t>Elec2020-NCR-QuezonCity-003</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="n">
         <v>0</v>
       </c>
@@ -11221,14 +10329,12 @@
       <c r="AK79" t="n">
         <v>0</v>
       </c>
-      <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="n">
         <v>1</v>
       </c>
       <c r="AN79" t="n">
         <v>0</v>
       </c>
-      <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11285,7 +10391,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>1342366.69</v>
       </c>
@@ -11325,7 +10430,7 @@
           <t>11-26-2019</t>
         </is>
       </c>
-      <c r="T80" s="2" t="n">
+      <c r="T80" s="3" t="n">
         <v>43508</v>
       </c>
       <c r="U80" t="inlineStr">
@@ -11333,7 +10438,7 @@
           <t>12-20-2020</t>
         </is>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44044</v>
       </c>
       <c r="W80" t="inlineStr">
@@ -11346,7 +10451,6 @@
           <t>AYZARIZ CORPORATION</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="n">
         <v>0</v>
       </c>
@@ -11394,7 +10498,6 @@
       <c r="AN80" t="n">
         <v>0</v>
       </c>
-      <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11451,7 +10554,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>8301022.67</v>
       </c>
@@ -11491,7 +10593,7 @@
           <t>11-26-2019</t>
         </is>
       </c>
-      <c r="T81" s="2" t="n">
+      <c r="T81" s="3" t="n">
         <v>43508</v>
       </c>
       <c r="U81" t="inlineStr">
@@ -11499,7 +10601,7 @@
           <t>12-20-2020</t>
         </is>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44044</v>
       </c>
       <c r="W81" t="inlineStr">
@@ -11512,7 +10614,6 @@
           <t>LORBEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="n">
         <v>0</v>
       </c>
@@ -11560,7 +10661,6 @@
       <c r="AN81" t="n">
         <v>0</v>
       </c>
-      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11617,7 +10717,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>3781382.22</v>
       </c>
@@ -11657,7 +10756,7 @@
           <t>11-26-2019</t>
         </is>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>43508</v>
       </c>
       <c r="U82" t="inlineStr">
@@ -11665,7 +10764,7 @@
           <t>12-20-2020</t>
         </is>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44044</v>
       </c>
       <c r="W82" t="inlineStr">
@@ -11678,7 +10777,6 @@
           <t>AYZARIZ CORPORATION</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="n">
         <v>0</v>
       </c>
@@ -11726,7 +10824,6 @@
       <c r="AN82" t="n">
         <v>0</v>
       </c>
-      <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11783,11 +10880,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>13616612.01</v>
       </c>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11796,21 +10891,11 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
           <t>Elec2020-NCR-TaguigCity&amp;Pateros-004</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="n">
         <v>0</v>
       </c>
@@ -11847,14 +10932,12 @@
       <c r="AK83" t="n">
         <v>0</v>
       </c>
-      <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="n">
         <v>1</v>
       </c>
       <c r="AN83" t="n">
         <v>0</v>
       </c>
-      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11911,11 +10994,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>15850864.57</v>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11924,20 +11005,11 @@
       <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
           <t>Elec2020-NCR-ValenzuelaCity-002</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr">
         <is>
           <t>awarded (report as of sept 2021)</t>
@@ -11979,14 +11051,12 @@
       <c r="AK84" t="n">
         <v>0</v>
       </c>
-      <c r="AL84" t="inlineStr"/>
       <c r="AM84" t="n">
         <v>1</v>
       </c>
       <c r="AN84" t="n">
         <v>0</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12043,11 +11113,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>15549594.13</v>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12056,10 +11124,9 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85" s="2" t="n">
+      <c r="O85" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
           <t>Elec2020-NCR-ValenzuelaCity-001</t>
@@ -12070,19 +11137,19 @@
           <t>INFRA-EPA-BEFF-2020-09-0002(LII)</t>
         </is>
       </c>
-      <c r="S85" s="2" t="n">
+      <c r="S85" s="3" t="n">
         <v>43796</v>
       </c>
-      <c r="T85" s="2" t="n">
+      <c r="T85" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="U85" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="V85" s="2" t="n">
+      <c r="V85" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="W85" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="X85" t="inlineStr">
@@ -12090,7 +11157,6 @@
           <t>Steven Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="n">
         <v>0</v>
       </c>
@@ -12127,14 +11193,12 @@
       <c r="AK85" t="n">
         <v>0</v>
       </c>
-      <c r="AL85" t="inlineStr"/>
       <c r="AM85" t="n">
         <v>1</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12210,10 +11274,10 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86" s="2" t="n">
+      <c r="O86" s="3" t="n">
         <v>45786</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>45772</v>
       </c>
       <c r="Q86" t="inlineStr">
@@ -12226,19 +11290,19 @@
           <t>INFRA2024-003</t>
         </is>
       </c>
-      <c r="S86" s="2" t="n">
+      <c r="S86" s="3" t="n">
         <v>45462</v>
       </c>
-      <c r="T86" s="2" t="n">
+      <c r="T86" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U86" s="3" t="n">
         <v>45482</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="3" t="n">
         <v>45587</v>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="W86" s="3" t="n">
         <v>45646</v>
       </c>
       <c r="X86" t="inlineStr">
@@ -12287,14 +11351,12 @@
       <c r="AK86" t="n">
         <v>0</v>
       </c>
-      <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="n">
         <v>0.9</v>
       </c>
       <c r="AN86" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="n">
         <v>5.25</v>
       </c>
@@ -12368,10 +11430,9 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87" s="2" t="n">
+      <c r="O87" s="3" t="n">
         <v>45651</v>
       </c>
-      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
           <t>2024-06-I-03</t>
@@ -12387,16 +11448,16 @@
           <t>27/06/2024</t>
         </is>
       </c>
-      <c r="T87" s="2" t="n">
+      <c r="T87" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="U87" s="2" t="n">
+      <c r="U87" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="V87" s="2" t="n">
+      <c r="V87" s="3" t="n">
         <v>45505</v>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="W87" s="3" t="n">
         <v>45531</v>
       </c>
       <c r="X87" t="inlineStr">
@@ -12404,7 +11465,6 @@
           <t>Image Builders and General Services</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
@@ -12441,14 +11501,12 @@
       <c r="AK87" t="n">
         <v>0</v>
       </c>
-      <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="n">
         <v>1</v>
       </c>
       <c r="AN87" t="n">
         <v>0</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="n">
         <v>1.25</v>
       </c>
@@ -12522,10 +11580,9 @@
       <c r="N88" t="n">
         <v>0.5</v>
       </c>
-      <c r="O88" s="2" t="n">
+      <c r="O88" s="3" t="n">
         <v>45865</v>
       </c>
-      <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
           <t>PB-SDO-MKT-2024-007</t>
@@ -12556,7 +11613,7 @@
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="W88" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="X88" t="inlineStr">
@@ -12605,15 +11662,12 @@
       <c r="AK88" t="n">
         <v>0</v>
       </c>
-      <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="n">
         <v>0.5</v>
       </c>
       <c r="AN88" t="n">
         <v>0</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -12684,10 +11738,9 @@
       <c r="N89" t="n">
         <v>0.5</v>
       </c>
-      <c r="O89" s="2" t="n">
+      <c r="O89" s="3" t="n">
         <v>45895</v>
       </c>
-      <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
           <t>PB-SDO-MKT-2024-006</t>
@@ -12718,7 +11771,7 @@
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="X89" t="inlineStr">
@@ -12767,15 +11820,12 @@
       <c r="AK89" t="n">
         <v>0</v>
       </c>
-      <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="n">
         <v>0.5</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -12846,27 +11896,24 @@
       <c r="N90" t="n">
         <v>0.7</v>
       </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
           <t>2024-infra-08-0001</t>
         </is>
       </c>
-      <c r="S90" s="2" t="n">
+      <c r="S90" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="T90" s="2" t="n">
+      <c r="T90" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="U90" s="2" t="n">
+      <c r="U90" s="3" t="n">
         <v>45492</v>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="V90" s="3" t="n">
         <v>45498</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="W90" s="3" t="n">
         <v>45502</v>
       </c>
       <c r="X90" t="inlineStr">
@@ -12915,15 +11962,12 @@
       <c r="AK90" t="n">
         <v>0</v>
       </c>
-      <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="n">
         <v>0.7</v>
       </c>
       <c r="AN90" t="n">
         <v>0</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -12994,10 +12038,10 @@
       <c r="N91" t="n">
         <v>0.95</v>
       </c>
-      <c r="O91" s="2" t="n">
+      <c r="O91" s="3" t="n">
         <v>45783</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P91" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="Q91" t="inlineStr">
@@ -13010,19 +12054,19 @@
           <t>OSEC-NCR-24-7842</t>
         </is>
       </c>
-      <c r="S91" s="2" t="n">
+      <c r="S91" s="3" t="n">
         <v>45589</v>
       </c>
-      <c r="T91" s="2" t="n">
+      <c r="T91" s="3" t="n">
         <v>45601</v>
       </c>
-      <c r="U91" s="2" t="n">
+      <c r="U91" s="3" t="n">
         <v>45608</v>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="V91" s="3" t="n">
         <v>45610</v>
       </c>
-      <c r="W91" s="2" t="n">
+      <c r="W91" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="X91" t="inlineStr">
@@ -13071,15 +12115,12 @@
       <c r="AK91" t="n">
         <v>0</v>
       </c>
-      <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="n">
         <v>0.95</v>
       </c>
       <c r="AN91" t="n">
         <v>0</v>
       </c>
-      <c r="AO91" t="inlineStr"/>
-      <c r="AP91" t="inlineStr"/>
       <c r="AQ91" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -13150,10 +12191,10 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
-      <c r="O92" s="2" t="n">
+      <c r="O92" s="3" t="n">
         <v>45628</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>45643</v>
       </c>
       <c r="Q92" t="inlineStr">
@@ -13166,19 +12207,19 @@
           <t> </t>
         </is>
       </c>
-      <c r="S92" s="2" t="n">
+      <c r="S92" s="3" t="n">
         <v>45420</v>
       </c>
-      <c r="T92" s="2" t="n">
+      <c r="T92" s="3" t="n">
         <v>45430</v>
       </c>
-      <c r="U92" s="2" t="n">
+      <c r="U92" s="3" t="n">
         <v>45440</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="V92" s="3" t="n">
         <v>45468</v>
       </c>
-      <c r="W92" s="2" t="n">
+      <c r="W92" s="3" t="n">
         <v>45537</v>
       </c>
       <c r="X92" t="inlineStr">
@@ -13227,14 +12268,12 @@
       <c r="AK92" t="n">
         <v>0</v>
       </c>
-      <c r="AL92" t="inlineStr"/>
       <c r="AM92" t="n">
         <v>1</v>
       </c>
       <c r="AN92" t="n">
         <v>0</v>
       </c>
-      <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="n">
         <v>3.25</v>
       </c>
@@ -13308,7 +12347,7 @@
       <c r="N93" t="n">
         <v>0.95</v>
       </c>
-      <c r="O93" s="2" t="n">
+      <c r="O93" s="3" t="n">
         <v>45718</v>
       </c>
       <c r="P93" t="inlineStr">
@@ -13326,19 +12365,19 @@
           <t> </t>
         </is>
       </c>
-      <c r="S93" s="2" t="n">
+      <c r="S93" s="3" t="n">
         <v>45420</v>
       </c>
-      <c r="T93" s="2" t="n">
+      <c r="T93" s="3" t="n">
         <v>45430</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>45440</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>45468</v>
       </c>
-      <c r="W93" s="2" t="n">
+      <c r="W93" s="3" t="n">
         <v>45537</v>
       </c>
       <c r="X93" t="inlineStr">
@@ -13387,15 +12426,12 @@
       <c r="AK93" t="n">
         <v>0</v>
       </c>
-      <c r="AL93" t="inlineStr"/>
       <c r="AM93" t="n">
         <v>0.95</v>
       </c>
       <c r="AN93" t="n">
         <v>0</v>
       </c>
-      <c r="AO93" t="inlineStr"/>
-      <c r="AP93" t="inlineStr"/>
       <c r="AQ93" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -13557,15 +12593,12 @@
       <c r="AK94" t="n">
         <v>0</v>
       </c>
-      <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="n">
         <v>0.65</v>
       </c>
       <c r="AN94" t="n">
         <v>0</v>
       </c>
-      <c r="AO94" t="inlineStr"/>
-      <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -13636,29 +12669,27 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95" s="2" t="n">
+      <c r="O95" s="3" t="n">
         <v>45695</v>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
           <t># 07-02</t>
         </is>
       </c>
-      <c r="S95" s="2" t="n">
+      <c r="S95" s="3" t="n">
         <v>45420</v>
       </c>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>45428</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>45441</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>45457</v>
       </c>
-      <c r="W95" s="2" t="n">
+      <c r="W95" s="3" t="n">
         <v>45504</v>
       </c>
       <c r="X95" t="inlineStr">
@@ -13707,14 +12738,12 @@
       <c r="AK95" t="n">
         <v>0</v>
       </c>
-      <c r="AL95" t="inlineStr"/>
       <c r="AM95" t="n">
         <v>1</v>
       </c>
       <c r="AN95" t="n">
         <v>0</v>
       </c>
-      <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="n">
         <v>4.25</v>
       </c>
@@ -13788,10 +12817,9 @@
       <c r="N96" t="n">
         <v>0.98</v>
       </c>
-      <c r="O96" s="2" t="n">
+      <c r="O96" s="3" t="n">
         <v>45596</v>
       </c>
-      <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
           <t>BAC-PB-2024-2</t>
@@ -13802,19 +12830,19 @@
           <t>BAC-PB-2024-2</t>
         </is>
       </c>
-      <c r="S96" s="2" t="n">
+      <c r="S96" s="3" t="n">
         <v>45428</v>
       </c>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>45447</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>45461</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>45468</v>
       </c>
-      <c r="W96" s="2" t="n">
+      <c r="W96" s="3" t="n">
         <v>45495</v>
       </c>
       <c r="X96" t="inlineStr">
@@ -13863,15 +12891,12 @@
       <c r="AK96" t="n">
         <v>0</v>
       </c>
-      <c r="AL96" t="inlineStr"/>
       <c r="AM96" t="n">
         <v>0.98</v>
       </c>
       <c r="AN96" t="n">
         <v>0</v>
       </c>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -13942,10 +12967,10 @@
       <c r="N97" t="n">
         <v>1</v>
       </c>
-      <c r="O97" s="2" t="n">
+      <c r="O97" s="3" t="n">
         <v>45782</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="Q97" t="inlineStr">
@@ -13958,19 +12983,19 @@
           <t>038B</t>
         </is>
       </c>
-      <c r="S97" s="2" t="n">
+      <c r="S97" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>45503</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>45509</v>
       </c>
-      <c r="W97" s="2" t="n">
+      <c r="W97" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="X97" t="inlineStr">
@@ -14019,14 +13044,12 @@
       <c r="AK97" t="n">
         <v>0</v>
       </c>
-      <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="n">
         <v>0.6</v>
       </c>
       <c r="AN97" t="n">
         <v>0.4</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="n">
         <v>5.25</v>
       </c>
@@ -14100,10 +13123,9 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98" s="2" t="n">
+      <c r="O98" s="3" t="n">
         <v>45592</v>
       </c>
-      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
           <t>SDOPC 2024-5-008-PB</t>
@@ -14114,19 +13136,19 @@
           <t>CA-2024-08-012</t>
         </is>
       </c>
-      <c r="S98" s="2" t="n">
+      <c r="S98" s="3" t="n">
         <v>45414</v>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>45422</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>45440</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>45456</v>
       </c>
-      <c r="W98" s="2" t="n">
+      <c r="W98" s="3" t="n">
         <v>45511</v>
       </c>
       <c r="X98" t="inlineStr">
@@ -14175,14 +13197,12 @@
       <c r="AK98" t="n">
         <v>0</v>
       </c>
-      <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="n">
         <v>1</v>
       </c>
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="n">
         <v>1.25</v>
       </c>
@@ -14256,10 +13276,9 @@
       <c r="N99" t="n">
         <v>1</v>
       </c>
-      <c r="O99" s="2" t="n">
+      <c r="O99" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -14270,19 +13289,19 @@
           <t>SDO-2024-INFRA-001 (LOT 4)</t>
         </is>
       </c>
-      <c r="S99" s="2" t="n">
+      <c r="S99" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W99" s="2" t="n">
+      <c r="W99" s="3" t="n">
         <v>45463</v>
       </c>
       <c r="X99" t="inlineStr">
@@ -14331,14 +13350,12 @@
       <c r="AK99" t="n">
         <v>0</v>
       </c>
-      <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="n">
         <v>1</v>
       </c>
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="n">
         <v>4.25</v>
       </c>
@@ -14412,10 +13429,9 @@
       <c r="N100" t="n">
         <v>1</v>
       </c>
-      <c r="O100" s="2" t="n">
+      <c r="O100" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -14426,19 +13442,19 @@
           <t>SDO-2024-INFRA-001 (LOT 3)</t>
         </is>
       </c>
-      <c r="S100" s="2" t="n">
+      <c r="S100" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W100" s="2" t="n">
+      <c r="W100" s="3" t="n">
         <v>45463</v>
       </c>
       <c r="X100" t="inlineStr">
@@ -14487,14 +13503,12 @@
       <c r="AK100" t="n">
         <v>0</v>
       </c>
-      <c r="AL100" t="inlineStr"/>
       <c r="AM100" t="n">
         <v>1</v>
       </c>
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="n">
         <v>4.25</v>
       </c>
@@ -14568,10 +13582,9 @@
       <c r="N101" t="n">
         <v>1</v>
       </c>
-      <c r="O101" s="2" t="n">
+      <c r="O101" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -14582,19 +13595,19 @@
           <t>SDO-2024-INFRA-001 (LOT 3)</t>
         </is>
       </c>
-      <c r="S101" s="2" t="n">
+      <c r="S101" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W101" s="2" t="n">
+      <c r="W101" s="3" t="n">
         <v>45463</v>
       </c>
       <c r="X101" t="inlineStr">
@@ -14643,14 +13656,12 @@
       <c r="AK101" t="n">
         <v>0</v>
       </c>
-      <c r="AL101" t="inlineStr"/>
       <c r="AM101" t="n">
         <v>1</v>
       </c>
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="n">
         <v>4.25</v>
       </c>
@@ -14724,10 +13735,9 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
-      <c r="O102" s="2" t="n">
+      <c r="O102" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -14738,19 +13748,19 @@
           <t>SDO-2024-INFRA-001 (LOT 3)</t>
         </is>
       </c>
-      <c r="S102" s="2" t="n">
+      <c r="S102" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W102" s="2" t="n">
+      <c r="W102" s="3" t="n">
         <v>45463</v>
       </c>
       <c r="X102" t="inlineStr">
@@ -14799,14 +13809,12 @@
       <c r="AK102" t="n">
         <v>0</v>
       </c>
-      <c r="AL102" t="inlineStr"/>
       <c r="AM102" t="n">
         <v>1</v>
       </c>
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="n">
         <v>4.25</v>
       </c>
@@ -14880,10 +13888,9 @@
       <c r="N103" t="n">
         <v>0.35</v>
       </c>
-      <c r="O103" s="2" t="n">
+      <c r="O103" s="3" t="n">
         <v>45670</v>
       </c>
-      <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -14894,19 +13901,19 @@
           <t>SDO-2024-INFRA-001 (LOT 5)</t>
         </is>
       </c>
-      <c r="S103" s="2" t="n">
+      <c r="S103" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W103" s="2" t="n">
+      <c r="W103" s="3" t="n">
         <v>45490</v>
       </c>
       <c r="X103" t="inlineStr">
@@ -14955,15 +13962,12 @@
       <c r="AK103" t="n">
         <v>0</v>
       </c>
-      <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="n">
         <v>0.35</v>
       </c>
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
-      <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -15034,10 +14038,9 @@
       <c r="N104" t="n">
         <v>0.5</v>
       </c>
-      <c r="O104" s="2" t="n">
+      <c r="O104" s="3" t="n">
         <v>45670</v>
       </c>
-      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -15048,19 +14051,19 @@
           <t>SDO-2024-INFRA-001 (LOT 5)</t>
         </is>
       </c>
-      <c r="S104" s="2" t="n">
+      <c r="S104" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W104" s="2" t="n">
+      <c r="W104" s="3" t="n">
         <v>45490</v>
       </c>
       <c r="X104" t="inlineStr">
@@ -15109,15 +14112,12 @@
       <c r="AK104" t="n">
         <v>0</v>
       </c>
-      <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="n">
         <v>0.5</v>
       </c>
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
       <c r="AQ104" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -15188,10 +14188,9 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
-      <c r="O105" s="2" t="n">
+      <c r="O105" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr">
         <is>
           <t>INFRA 001, s. 2024</t>
@@ -15202,19 +14201,19 @@
           <t>SDO-2024-INFRA-001 (LOT 4)</t>
         </is>
       </c>
-      <c r="S105" s="2" t="n">
+      <c r="S105" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="T105" s="2" t="n">
+      <c r="T105" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="U105" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="V105" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W105" s="2" t="n">
+      <c r="W105" s="3" t="n">
         <v>45463</v>
       </c>
       <c r="X105" t="inlineStr">
@@ -15263,14 +14262,12 @@
       <c r="AK105" t="n">
         <v>0</v>
       </c>
-      <c r="AL105" t="inlineStr"/>
       <c r="AM105" t="n">
         <v>1</v>
       </c>
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="n">
         <v>4.25</v>
       </c>
@@ -15344,27 +14341,24 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
           <t>DTP-CY2024-INFRA-001</t>
         </is>
       </c>
-      <c r="S106" s="2" t="n">
+      <c r="S106" s="3" t="n">
         <v>45504</v>
       </c>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="U106" s="2" t="n">
+      <c r="U106" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="V106" s="2" t="n">
+      <c r="V106" s="3" t="n">
         <v>45531</v>
       </c>
-      <c r="W106" s="2" t="n">
+      <c r="W106" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="X106" t="inlineStr">
@@ -15413,14 +14407,12 @@
       <c r="AK106" t="n">
         <v>0</v>
       </c>
-      <c r="AL106" t="inlineStr"/>
       <c r="AM106" t="n">
         <v>0.95</v>
       </c>
       <c r="AN106" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="n">
         <v>5.25</v>
       </c>
@@ -15494,27 +14486,24 @@
       <c r="N107" t="n">
         <v>1</v>
       </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
           <t>DTP-CY2024-INFRA-001</t>
         </is>
       </c>
-      <c r="S107" s="2" t="n">
+      <c r="S107" s="3" t="n">
         <v>45504</v>
       </c>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="U107" s="2" t="n">
+      <c r="U107" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="3" t="n">
         <v>45531</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="W107" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="X107" t="inlineStr">
@@ -15563,14 +14552,12 @@
       <c r="AK107" t="n">
         <v>0</v>
       </c>
-      <c r="AL107" t="inlineStr"/>
       <c r="AM107" t="n">
         <v>1</v>
       </c>
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="n">
         <v>4.25</v>
       </c>
@@ -15644,9 +14631,6 @@
       <c r="N108" t="n">
         <v>0.4</v>
       </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
           <t>SDO-VAL-PB-BEFF-ELECT-2024-12-0003</t>
@@ -15723,15 +14707,12 @@
       <c r="AK108" t="n">
         <v>0</v>
       </c>
-      <c r="AL108" t="inlineStr"/>
       <c r="AM108" t="n">
         <v>0.4</v>
       </c>
       <c r="AN108" t="n">
         <v>0</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -15802,9 +14783,6 @@
       <c r="N109" t="n">
         <v>0.4</v>
       </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
         <is>
           <t>SDO-VAL-PB-BEFF-ELECT-2024-12-0003</t>
@@ -15881,15 +14859,12 @@
       <c r="AK109" t="n">
         <v>0</v>
       </c>
-      <c r="AL109" t="inlineStr"/>
       <c r="AM109" t="n">
         <v>0.4</v>
       </c>
       <c r="AN109" t="n">
         <v>0</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
       <c r="AQ109" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -15898,6 +14873,79 @@
       <c r="AR109" t="inlineStr">
         <is>
           <t>ONGOING</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AS2:AS109" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/NCR/NCR_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/NCR/NCR_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS109"/>
+  <dimension ref="A1:AU109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -776,7 +786,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +897,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -998,7 +1008,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1109,7 +1119,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1226,7 +1236,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1366,7 +1376,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1518,7 +1528,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1676,7 +1686,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1793,7 +1803,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1945,7 +1955,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2097,7 +2107,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2214,7 +2224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2331,7 +2341,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2448,7 +2458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2565,7 +2575,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2682,7 +2692,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2799,7 +2809,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2916,7 +2926,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3033,7 +3043,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3150,7 +3160,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3267,7 +3277,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3384,7 +3394,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3501,7 +3511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3618,7 +3628,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3735,7 +3745,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3852,7 +3862,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3969,7 +3979,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4088,7 +4098,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4255,7 +4265,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4422,7 +4432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4541,7 +4551,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4660,7 +4670,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4779,7 +4789,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4898,7 +4908,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5017,7 +5027,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5136,7 +5146,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5255,7 +5265,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5369,7 +5379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5483,7 +5493,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5597,7 +5607,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5711,7 +5721,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5830,7 +5840,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5949,7 +5959,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6063,7 +6073,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6217,7 +6227,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6338,6 +6348,11 @@
       </c>
       <c r="AR47" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6455,7 +6470,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6622,7 +6637,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6736,7 +6751,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6889,7 +6904,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7039,7 +7054,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7188,6 +7203,11 @@
       </c>
       <c r="AR53" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -7307,6 +7327,11 @@
       </c>
       <c r="AR54" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -7467,7 +7492,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7583,6 +7608,11 @@
       </c>
       <c r="AR56" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -7712,7 +7742,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7826,7 +7856,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7957,7 +7987,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8073,6 +8103,11 @@
       </c>
       <c r="AR60" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8202,7 +8237,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8316,7 +8351,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8430,7 +8465,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8544,7 +8579,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8675,7 +8710,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8821,7 +8856,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8940,7 +8975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9088,6 +9123,11 @@
       </c>
       <c r="AR68" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -9200,7 +9240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9314,7 +9354,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9428,7 +9468,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9542,7 +9582,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9661,7 +9701,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9775,7 +9815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9889,7 +9929,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10003,7 +10043,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10119,6 +10159,11 @@
       </c>
       <c r="AR77" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -10231,7 +10276,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10345,7 +10390,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10508,7 +10553,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10671,7 +10716,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10834,7 +10879,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10948,7 +10993,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11067,7 +11112,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11209,7 +11254,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11365,7 +11410,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -11517,6 +11562,11 @@
       </c>
       <c r="AR87" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -11673,7 +11723,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -11831,7 +11881,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -11973,7 +12023,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -12126,7 +12176,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -12284,6 +12334,11 @@
       </c>
       <c r="AR92" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -12437,7 +12492,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -12604,7 +12659,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -12754,6 +12809,11 @@
       </c>
       <c r="AR95" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -12902,7 +12962,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -13058,7 +13118,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -13213,6 +13273,11 @@
       </c>
       <c r="AR98" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13366,6 +13431,11 @@
       </c>
       <c r="AR99" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13519,6 +13589,11 @@
       </c>
       <c r="AR100" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13672,6 +13747,11 @@
       </c>
       <c r="AR101" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13825,6 +13905,11 @@
       </c>
       <c r="AR102" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13973,7 +14058,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -14123,7 +14208,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -14278,6 +14363,11 @@
       </c>
       <c r="AR105" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT105" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -14421,7 +14511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -14568,6 +14658,11 @@
       </c>
       <c r="AR107" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -14718,7 +14813,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -14870,7 +14965,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -14878,7 +14973,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS109" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU109" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
